--- a/output_data/charts/capacity-Columbus-1600000US3918000.xlsx
+++ b/output_data/charts/capacity-Columbus-1600000US3918000.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -498,28 +498,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>250000</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20360</c:v>
+                  <c:v>20.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8840</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156460</c:v>
+                  <c:v>156.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16520</c:v>
+                  <c:v>16.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2100</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -856,52 +856,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4900</c:v>
+                  <c:v>4.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>252350</c:v>
+                  <c:v>252.35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>423700</c:v>
+                  <c:v>423.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112000</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1064800</c:v>
+                  <c:v>1064.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>561200</c:v>
+                  <c:v>561.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>330000</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>508285</c:v>
+                  <c:v>508.285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1388030</c:v>
+                  <c:v>1388.03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>861870</c:v>
+                  <c:v>861.87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3532300</c:v>
+                  <c:v>3532.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352400</c:v>
+                  <c:v>1352.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3019190</c:v>
+                  <c:v>3019.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3814220</c:v>
+                  <c:v>3814.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11039673</c:v>
+                  <c:v>11039.673</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5250639</c:v>
+                  <c:v>5250.639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>2100</v>
+        <v>2.1</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>4900</v>
+        <v>4.9</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>252350</v>
+        <v>252.35</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>423700</v>
+        <v>423.7</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>112000</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1064800</v>
+        <v>1064.8</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>561200</v>
+        <v>561.2</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>330000</v>
+        <v>330</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>508285</v>
+        <v>508.285</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1388030</v>
+        <v>1388.03</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>861870</v>
+        <v>861.87</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>3532300</v>
+        <v>3532.3</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>1352400</v>
+        <v>1352.4</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>20360</v>
+        <v>20.36</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>3019190</v>
+        <v>3019.19</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>8840</v>
+        <v>8.84</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>3814220</v>
+        <v>3814.22</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>156460</v>
+        <v>156.46</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>11039673</v>
+        <v>11039.673</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>16520</v>
+        <v>16.52</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>5250639</v>
+        <v>5250.639</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Columbus-1600000US3918000.xlsx
+++ b/output_data/charts/capacity-Columbus-1600000US3918000.xlsx
@@ -519,7 +519,7 @@
                   <c:v>156.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.52</c:v>
+                  <c:v>43.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +895,13 @@
                   <c:v>3019.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3814.22</c:v>
+                  <c:v>3819.58</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>11039.673</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5250.639</c:v>
+                  <c:v>7878.947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>3814.22</v>
+        <v>3819.58</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>16.52</v>
+        <v>43.4</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>5250.639</v>
+        <v>7878.947</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
